--- a/chromatin_model.xlsx
+++ b/chromatin_model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\enhancer_dynamics\model_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\enhancer_dynamics\model_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20000" windowHeight="8887" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20000" windowHeight="8887" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Species" sheetId="6" r:id="rId1"/>
@@ -305,9 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,6 +312,9 @@
     <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2522,15 +2522,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="7.3515625" customWidth="1"/>
     <col min="2" max="2" width="9.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.41015625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="13.41015625" style="20" customWidth="1"/>
     <col min="6" max="6" width="12.64453125" customWidth="1"/>
     <col min="7" max="7" width="42" customWidth="1"/>
     <col min="8" max="8" width="11.52734375" customWidth="1"/>
@@ -2549,7 +2549,7 @@
       <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -2564,7 +2564,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2576,7 +2576,7 @@
       <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -2589,14 +2589,14 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>25</v>
@@ -2611,7 +2611,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2645,7 +2645,7 @@
       <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>75</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2668,7 +2668,7 @@
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <f>E2*1.2</f>
         <v>12</v>
       </c>
@@ -2682,14 +2682,14 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>25</v>
@@ -2704,7 +2704,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2738,7 +2738,7 @@
       <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f>E5*0.8</f>
         <v>60</v>
       </c>
@@ -2750,7 +2750,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2762,7 +2762,7 @@
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <f>E6*1.2</f>
         <v>14.399999999999999</v>
       </c>
@@ -2776,14 +2776,14 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -2832,7 +2832,7 @@
       <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f>E9*0.8</f>
         <v>48</v>
       </c>
@@ -2844,7 +2844,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="19">
+      <c r="A14" s="23">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2856,7 +2856,7 @@
       <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f>E10*1.2</f>
         <v>17.279999999999998</v>
       </c>
@@ -2870,14 +2870,14 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>25</v>
@@ -2892,7 +2892,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -2926,7 +2926,7 @@
       <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f>E13*0.8</f>
         <v>38.400000000000006</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19">
+      <c r="A18" s="23">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2950,7 +2950,7 @@
       <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f>E14*1.2</f>
         <v>20.735999999999997</v>
       </c>
@@ -2964,14 +2964,14 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
@@ -2986,7 +2986,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -3020,7 +3020,7 @@
       <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f>E17*0.8</f>
         <v>30.720000000000006</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19">
+      <c r="A22" s="23">
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3044,7 +3044,7 @@
       <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f>E18*1.2</f>
         <v>24.883199999999995</v>
       </c>
@@ -3058,14 +3058,14 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A23" s="19"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>25</v>
@@ -3080,7 +3080,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A24" s="19"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -3114,7 +3114,7 @@
       <c r="D25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <f>E21*0.8</f>
         <v>24.576000000000008</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="19">
+      <c r="A26" s="23">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3138,7 +3138,7 @@
       <c r="D26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <f>E22*1.2</f>
         <v>29.859839999999991</v>
       </c>
@@ -3152,14 +3152,14 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A27" s="19"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A28" s="19"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
         <v>6</v>
@@ -3208,7 +3208,7 @@
       <c r="D29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <f>E25*0.8</f>
         <v>19.660800000000009</v>
       </c>
@@ -3220,7 +3220,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="19">
+      <c r="A30" s="23">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3232,7 +3232,7 @@
       <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <f>E26*1.2</f>
         <v>35.831807999999988</v>
       </c>
@@ -3246,14 +3246,14 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A31" s="19"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -3268,7 +3268,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A32" s="19"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
         <v>6</v>
@@ -3302,7 +3302,7 @@
       <c r="D33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <f>E29*0.8</f>
         <v>15.728640000000008</v>
       </c>
@@ -3314,7 +3314,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="19">
+      <c r="A34" s="23">
         <v>17</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3326,7 +3326,7 @@
       <c r="D34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <f>E30*1.2</f>
         <v>42.998169599999983</v>
       </c>
@@ -3340,14 +3340,14 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A35" s="19"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -3362,7 +3362,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A36" s="19"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
         <v>6</v>
@@ -3396,7 +3396,7 @@
       <c r="D37" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <f>E33*0.8</f>
         <v>12.582912000000007</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19">
+      <c r="A38" s="23">
         <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3420,7 +3420,7 @@
       <c r="D38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <f>E34*1.2</f>
         <v>51.597803519999978</v>
       </c>
@@ -3434,14 +3434,14 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A39" s="19"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>
@@ -3456,7 +3456,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A40" s="19"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>6</v>
@@ -3490,7 +3490,7 @@
       <c r="D41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <f>E37*0.8</f>
         <v>10.066329600000007</v>
       </c>
@@ -3502,7 +3502,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
+      <c r="A42" s="23">
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3514,7 +3514,7 @@
       <c r="D42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <f>E38*1.2</f>
         <v>61.917364223999968</v>
       </c>
@@ -3528,14 +3528,14 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A43" s="19"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>25</v>
@@ -3550,7 +3550,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A44" s="19"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
         <v>6</v>
@@ -3584,7 +3584,7 @@
       <c r="D45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <f>E41*0.8</f>
         <v>8.0530636800000064</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="19">
+      <c r="A46" s="23">
         <v>23</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3608,7 +3608,7 @@
       <c r="D46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <f>E42*1.2</f>
         <v>74.300837068799964</v>
       </c>
@@ -3622,14 +3622,14 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A47" s="19"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>25</v>
@@ -3644,7 +3644,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A48" s="19"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
         <v>6</v>
@@ -3678,7 +3678,7 @@
       <c r="D49" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <f>E45*0.8</f>
         <v>6.4424509440000053</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="19">
+      <c r="A50" s="23">
         <v>25</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3702,7 +3702,7 @@
       <c r="D50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <f>E46*1.2</f>
         <v>89.16100448255996</v>
       </c>
@@ -3716,14 +3716,14 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A51" s="19"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>25</v>
@@ -3738,7 +3738,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A52" s="19"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
         <v>6</v>
@@ -3772,7 +3772,7 @@
       <c r="D53" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E53" s="21">
         <f>E49*0.8</f>
         <v>5.1539607552000044</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="19">
+      <c r="A54" s="23">
         <v>27</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3796,7 +3796,7 @@
       <c r="D54" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <f>E50*1.2</f>
         <v>106.99320537907195</v>
       </c>
@@ -3810,14 +3810,14 @@
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A55" s="19"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>25</v>
@@ -3832,7 +3832,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A56" s="19"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
         <v>6</v>
@@ -3866,7 +3866,7 @@
       <c r="D57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="21">
         <f>E53*0.8</f>
         <v>4.1231686041600035</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="23"/>
+      <c r="E58" s="22"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -3905,7 +3905,7 @@
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="23"/>
+      <c r="E60" s="22"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -3916,7 +3916,7 @@
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="22"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -4307,7 +4307,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4332,7 +4332,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -4354,7 +4354,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -4399,7 +4399,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -4425,7 +4425,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -4447,7 +4447,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -4493,7 +4493,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -4519,7 +4519,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -4541,7 +4541,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -4587,7 +4587,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="19">
+      <c r="A14" s="23">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4613,7 +4613,7 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -4681,7 +4681,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19">
+      <c r="A18" s="23">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4707,7 +4707,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>6</v>
@@ -4729,7 +4729,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -4775,7 +4775,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19">
+      <c r="A22" s="23">
         <v>11</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4801,7 +4801,7 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="19">
+      <c r="A26" s="23">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -4895,7 +4895,7 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A27" s="19"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
         <v>6</v>
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A28" s="19"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
         <v>6</v>
@@ -4963,7 +4963,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="19">
+      <c r="A30" s="23">
         <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -4988,7 +4988,7 @@
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A31" s="19"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
         <v>6</v>
@@ -5010,7 +5010,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A32" s="19"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
         <v>6</v>
@@ -5056,7 +5056,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="19">
+      <c r="A34" s="23">
         <v>17</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5081,7 +5081,7 @@
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
         <v>6</v>
@@ -5103,7 +5103,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A36" s="19"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
         <v>6</v>
@@ -5149,7 +5149,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19">
+      <c r="A38" s="23">
         <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5174,7 +5174,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A39" s="19"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
         <v>6</v>
@@ -5196,7 +5196,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A40" s="19"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
         <v>6</v>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19">
+      <c r="A42" s="23">
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -5267,7 +5267,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A43" s="19"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
         <v>6</v>
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A44" s="19"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
         <v>6</v>
@@ -5335,7 +5335,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="19">
+      <c r="A46" s="23">
         <v>23</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5360,7 +5360,7 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A47" s="19"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
         <v>6</v>
@@ -5382,7 +5382,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A48" s="19"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
         <v>6</v>
@@ -5428,7 +5428,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="19">
+      <c r="A50" s="23">
         <v>25</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5453,7 +5453,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A51" s="19"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
         <v>6</v>
@@ -5475,7 +5475,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A52" s="19"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
         <v>6</v>
@@ -5521,7 +5521,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="19">
+      <c r="A54" s="23">
         <v>27</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -5546,7 +5546,7 @@
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A55" s="19"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
         <v>6</v>
@@ -5568,7 +5568,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="13.7" hidden="1">
-      <c r="A56" s="19"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
         <v>6</v>
@@ -6077,7 +6077,7 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6102,7 +6102,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -6124,7 +6124,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A4" s="19"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -6169,7 +6169,7 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -6195,7 +6195,7 @@
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -6217,7 +6217,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -6263,7 +6263,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -6289,7 +6289,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -6311,7 +6311,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="13.7">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>6</v>
